--- a/db/PedMedCont.xlsx
+++ b/db/PedMedCont.xlsx
@@ -722,7 +722,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,6 +1364,9 @@
       <c r="N14">
         <v>2</v>
       </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
       <c r="Q14">
         <v>0</v>
       </c>
@@ -1479,28 +1482,28 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H17">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J17">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L17">
         <v>0.05</v>
@@ -1509,6 +1512,9 @@
         <v>5</v>
       </c>
       <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="P17">
         <v>10</v>
       </c>
       <c r="Q17">
@@ -1608,6 +1614,9 @@
       <c r="N19">
         <v>50</v>
       </c>
+      <c r="P19">
+        <v>1000</v>
+      </c>
       <c r="Q19">
         <v>0</v>
       </c>
@@ -1805,6 +1814,12 @@
       <c r="N23">
         <v>25</v>
       </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>16</v>
+      </c>
       <c r="Q23">
         <v>0</v>
       </c>
@@ -2003,7 +2018,7 @@
         <v>6</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2293,6 +2308,12 @@
       <c r="N33">
         <v>15</v>
       </c>
+      <c r="O33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P33">
+        <v>0.42</v>
+      </c>
       <c r="Q33">
         <v>0</v>
       </c>
@@ -2308,25 +2329,25 @@
         <v>20</v>
       </c>
       <c r="D34">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="E34">
         <v>50</v>
       </c>
       <c r="F34">
-        <v>2000</v>
+        <v>1250</v>
       </c>
       <c r="G34">
         <v>50</v>
       </c>
       <c r="H34">
-        <v>4000</v>
+        <v>1250</v>
       </c>
       <c r="I34">
         <v>50</v>
       </c>
       <c r="J34">
-        <v>4000</v>
+        <v>1250</v>
       </c>
       <c r="K34">
         <v>50</v>
@@ -2339,6 +2360,12 @@
       </c>
       <c r="N34">
         <v>20</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>25</v>
       </c>
       <c r="Q34">
         <v>0</v>

--- a/db/PedMedCont.xlsx
+++ b/db/PedMedCont.xlsx
@@ -722,7 +722,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,13 +1444,13 @@
         <v>50</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I16">
         <v>50</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="K16">
         <v>50</v>
@@ -1465,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="P16">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="P23">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>0</v>

--- a/db/PedMedCont.xlsx
+++ b/db/PedMedCont.xlsx
@@ -63,9 +63,6 @@
     <t>dopamine</t>
   </si>
   <si>
-    <t>Epi bupi 2,5mg /ml</t>
-  </si>
-  <si>
     <t>ml</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>N.B. Epiduraal, volgens voorschrift anesthesist!</t>
   </si>
   <si>
-    <t>Epi bupi 2,5mg, sufenta 1 mcg /ml</t>
-  </si>
-  <si>
     <t>epoprostenol</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>Tbl_Ped_MedContIV</t>
+  </si>
+  <si>
+    <t>Epi bupi 1,25mg /ml</t>
+  </si>
+  <si>
+    <t>Epi bupi 1,25mg, sufenta 0,5 mcg /ml</t>
   </si>
 </sst>
 </file>
@@ -721,9 +721,7 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -737,7 +735,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -747,7 +745,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -759,19 +757,19 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -782,58 +780,58 @@
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1170,13 +1168,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1215,18 +1213,18 @@
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1265,12 +1263,12 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1323,13 +1321,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>100</v>
@@ -1373,13 +1371,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>500</v>
@@ -1423,7 +1421,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1473,7 +1471,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1523,13 +1521,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -1573,13 +1571,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
       </c>
       <c r="D19">
         <v>5000</v>
@@ -1623,13 +1621,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -1673,7 +1671,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1723,13 +1721,13 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>250</v>
@@ -1773,13 +1771,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>500</v>
@@ -1826,13 +1824,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>25</v>
@@ -1876,7 +1874,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -1926,13 +1924,13 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1976,13 +1974,13 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
         <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
       </c>
       <c r="D27">
         <v>25</v>
@@ -2023,7 +2021,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -2073,7 +2071,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -2123,13 +2121,13 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -2170,13 +2168,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>20</v>
@@ -2217,13 +2215,13 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>50</v>
@@ -2267,7 +2265,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -2320,13 +2318,13 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>1250</v>
@@ -2371,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/db/PedMedCont.xlsx
+++ b/db/PedMedCont.xlsx
@@ -16,8 +16,9 @@
   </externalReferences>
   <definedNames>
     <definedName name="_Pat_Gewicht">[1]PatDetails!$B$6</definedName>
+    <definedName name="Tbl_Admin_PedMedCont" localSheetId="0">Tbl_Admin_PedMedCont!$A$4:$R$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -129,9 +130,6 @@
     <t>morfine</t>
   </si>
   <si>
-    <t>NaCl 2,9%</t>
-  </si>
-  <si>
     <t>mmol</t>
   </si>
   <si>
@@ -220,6 +218,9 @@
   </si>
   <si>
     <t>Epi bupi 1,25mg, sufenta 0,5 mcg /ml</t>
+  </si>
+  <si>
+    <t>NaCl 3%</t>
   </si>
 </sst>
 </file>
@@ -335,7 +336,7 @@
       <sheetName val="PedPrtTPN2tot6"/>
       <sheetName val="PedPrtTPN7tot15"/>
       <sheetName val="PedPrtTPN16tot30"/>
-      <sheetName val="PedTPN31tot50"/>
+      <sheetName val="PedPrtTPN31tot50"/>
       <sheetName val="PedPrtTPN50"/>
       <sheetName val="Neo--&gt;"/>
       <sheetName val="NeoGuiInfB"/>
@@ -377,7 +378,7 @@
       <sheetData sheetId="18">
         <row r="6">
           <cell r="B6">
-            <v>70</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -721,7 +722,9 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:R34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -735,7 +738,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -745,7 +748,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -757,19 +760,19 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -780,58 +783,58 @@
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1168,7 +1171,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1218,7 +1221,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1974,13 +1977,13 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
       </c>
       <c r="D27">
         <v>25</v>
@@ -2021,7 +2024,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -2071,7 +2074,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -2121,7 +2124,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -2168,7 +2171,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -2215,7 +2218,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -2369,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/db/PedMedCont.xlsx
+++ b/db/PedMedCont.xlsx
@@ -723,7 +723,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:R34"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1960,13 +1960,13 @@
         <v>50</v>
       </c>
       <c r="L26">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>0.5</v>
+        <v>40</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="P26">
         <v>1</v>

--- a/db/PedMedCont.xlsx
+++ b/db/PedMedCont.xlsx
@@ -16,14 +16,14 @@
   </externalReferences>
   <definedNames>
     <definedName name="_Pat_Gewicht">[1]PatDetails!$B$6</definedName>
-    <definedName name="Tbl_Admin_PedMedCont" localSheetId="0">Tbl_Admin_PedMedCont!$A$4:$R$34</definedName>
+    <definedName name="Tbl_Admin_PedMedCont" localSheetId="0">Tbl_Admin_PedMedCont!$A$4:$R$35</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
   <si>
     <t>adrenaline</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>NaCl 3%</t>
+  </si>
+  <si>
+    <t>nicardipine</t>
   </si>
 </sst>
 </file>
@@ -294,6 +297,7 @@
       <sheetName val="Global--&gt;"/>
       <sheetName val="GlobGuiFront"/>
       <sheetName val="GlobGuiMedDisc"/>
+      <sheetName val="GlobPrtMedDisc"/>
       <sheetName val="GlobBerMedDisc"/>
       <sheetName val="GlobTblMedDisc"/>
       <sheetName val="GlobTblMedOpdr"/>
@@ -375,14 +379,14 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
-      <sheetData sheetId="18">
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19">
         <row r="6">
           <cell r="B6">
             <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
@@ -427,6 +431,7 @@
       <sheetData sheetId="61"/>
       <sheetData sheetId="62"/>
       <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -720,10 +725,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,7 +2029,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -2033,25 +2038,25 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>50</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>50</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I28">
         <v>50</v>
       </c>
       <c r="J28">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>50</v>
@@ -2060,13 +2065,13 @@
         <v>0.5</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2074,7 +2079,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -2083,40 +2088,40 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>50</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G29">
         <v>50</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I29">
         <v>50</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K29">
         <v>50</v>
       </c>
       <c r="L29">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2124,54 +2129,57 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -2180,25 +2188,25 @@
         <v>18</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2218,7 +2226,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -2227,93 +2235,87 @@
         <v>18</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I32">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="K32">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="P32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>50</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G33">
         <v>50</v>
       </c>
       <c r="H33">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="I33">
         <v>50</v>
       </c>
       <c r="J33">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="K33">
         <v>50</v>
       </c>
       <c r="L33">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="N33">
-        <v>15</v>
-      </c>
-      <c r="O33">
-        <v>5.0000000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="P33">
-        <v>0.42</v>
+        <v>10</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2321,57 +2323,110 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="H34">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <v>50</v>
+      </c>
+      <c r="J34">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>50</v>
+      </c>
+      <c r="L34">
+        <v>0.1</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>15</v>
+      </c>
+      <c r="O34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P34">
+        <v>0.42</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>18</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>1250</v>
       </c>
-      <c r="E34">
-        <v>50</v>
-      </c>
-      <c r="F34">
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35">
         <v>1250</v>
       </c>
-      <c r="G34">
-        <v>50</v>
-      </c>
-      <c r="H34">
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35">
         <v>1250</v>
       </c>
-      <c r="I34">
-        <v>50</v>
-      </c>
-      <c r="J34">
+      <c r="I35">
+        <v>50</v>
+      </c>
+      <c r="J35">
         <v>1250</v>
       </c>
-      <c r="K34">
-        <v>50</v>
-      </c>
-      <c r="L34">
+      <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="L35">
         <v>5</v>
       </c>
-      <c r="M34">
-        <v>10</v>
-      </c>
-      <c r="N34">
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
         <v>20</v>
       </c>
-      <c r="O34">
+      <c r="O35">
         <v>5</v>
       </c>
-      <c r="P34">
+      <c r="P35">
         <v>25</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
         <v>44</v>
       </c>
     </row>
